--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet_May_2021.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet_May_2021.xlsx
@@ -472,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -537,6 +537,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,7 +890,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,32 +1034,32 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
+      <c r="B11" s="34">
         <v>6</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
+      <c r="B12" s="34">
         <v>7</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="17"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2">

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet_May_2021.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet_May_2021.xlsx
@@ -472,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -537,18 +537,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,7 +878,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,32 +1022,32 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="34">
+      <c r="B11" s="15">
         <v>6</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="34">
+      <c r="B12" s="15">
         <v>7</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="35"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
